--- a/relatorio/dadosTempo.xlsx
+++ b/relatorio/dadosTempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duartecruz/Desktop/FACULDADE/2_ano/ASA/proj3/projeto3ASA/relatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC437E9B-1329-BE42-BE29-FB8622E8BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A07B986-63B7-0941-A8D8-26EEC4AB93EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8400" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{ECE17CAF-6B44-294D-B264-AC41C6C49F5A}"/>
   </bookViews>
@@ -18,8 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Folha1!$G$47:$G$73</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Folha1!$H$47:$H$73</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Folha1!$G$47:$G$73</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Folha1!$H$47:$H$73</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Folha1!$G$47:$G$73</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Folha1!$H$47:$H$73</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Folha1!$G$47:$G$73</definedName>
@@ -61,9 +59,6 @@
     <t>t Crianças</t>
   </si>
   <si>
-    <t>TMN</t>
-  </si>
-  <si>
     <t>Tempo</t>
   </si>
   <si>
@@ -80,6 +75,9 @@
   </si>
   <si>
     <t>T^2 + MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NMT^3</t>
   </si>
 </sst>
 </file>
@@ -155,6 +153,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Complexidade</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> efetiva</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -168,7 +196,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -199,7 +227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27000000</c:v>
+                  <c:v>2,43E+14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -223,85 +251,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1000000</c:v>
+                  <c:v>1000000000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000000</c:v>
+                  <c:v>2000000000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000000</c:v>
+                  <c:v>2000000000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000000</c:v>
+                  <c:v>3000000000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000000</c:v>
+                  <c:v>3000000000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3000000</c:v>
+                  <c:v>4000000000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000000</c:v>
+                  <c:v>6000000000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000000</c:v>
+                  <c:v>6000000000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000000</c:v>
+                  <c:v>8000000000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000000</c:v>
+                  <c:v>9000000000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6000000</c:v>
+                  <c:v>16000000000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6000000</c:v>
+                  <c:v>16000000000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6000000</c:v>
+                  <c:v>24000000000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6000000</c:v>
+                  <c:v>24000000000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6000000</c:v>
+                  <c:v>27000000000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6000000</c:v>
+                  <c:v>32000000000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8000000</c:v>
+                  <c:v>48000000000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9000000</c:v>
+                  <c:v>48000000000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9000000</c:v>
+                  <c:v>54000000000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9000000</c:v>
+                  <c:v>54000000000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12000000</c:v>
+                  <c:v>72000000000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12000000</c:v>
+                  <c:v>81000000000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12000000</c:v>
+                  <c:v>81000000000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18000000</c:v>
+                  <c:v>108000000000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18000000</c:v>
+                  <c:v>162000000000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18000000</c:v>
+                  <c:v>162000000000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27000000</c:v>
+                  <c:v>243000000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,31 +350,31 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.26</c:v>
@@ -355,34 +383,34 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.43</c:v>
@@ -418,6 +446,7 @@
         <c:axId val="1074830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250000000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -435,6 +464,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>NMT^3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -497,6 +581,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -653,26 +797,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -681,85 +815,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1001003.0413926851</c:v>
+                  <c:v>1000000000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2001003.0413926851</c:v>
+                  <c:v>2000000000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2001003.079181246</c:v>
+                  <c:v>2000000000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2002003.3222192947</c:v>
+                  <c:v>3000000000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3001003.0413926854</c:v>
+                  <c:v>3000000000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3001003.1139433524</c:v>
+                  <c:v>4000000000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3003003.4913616939</c:v>
+                  <c:v>6000000000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4001003.079181246</c:v>
+                  <c:v>6000000000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4002003.322219295</c:v>
+                  <c:v>8000000000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4002003.3424226809</c:v>
+                  <c:v>9000000000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6001003.0791812465</c:v>
+                  <c:v>16000000000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6001003.1139433524</c:v>
+                  <c:v>16000000000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6002003.3222192945</c:v>
+                  <c:v>24000000000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6002003.3617278356</c:v>
+                  <c:v>24000000000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6003003.4913616935</c:v>
+                  <c:v>27000000000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6003003.5051499782</c:v>
+                  <c:v>32000000000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8002003.3424226809</c:v>
+                  <c:v>48000000000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9001003.1139433514</c:v>
+                  <c:v>48000000000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9003003.4913616944</c:v>
+                  <c:v>54000000000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9003003.5185139403</c:v>
+                  <c:v>54000000000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12002003.342422681</c:v>
+                  <c:v>72000000000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12002003.361727836</c:v>
+                  <c:v>81000000000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12003003.505149979</c:v>
+                  <c:v>81000000000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18002003.361727837</c:v>
+                  <c:v>108000000000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18003003.505149979</c:v>
+                  <c:v>162000000000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18003003.51851394</c:v>
+                  <c:v>162000000000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27003003.51851394</c:v>
+                  <c:v>243000000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,31 +914,31 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.28000000000000003</c:v>
@@ -813,34 +947,34 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>0.27</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.43</c:v>
@@ -2165,15 +2299,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>770299</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>189746</xdr:rowOff>
+      <xdr:colOff>770300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>744899</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>227265</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>157995</xdr:rowOff>
+      <xdr:rowOff>157994</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2556,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EAD723-5EFE-7345-AFF4-54F3E633B184}">
   <dimension ref="B2:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2576,19 +2710,19 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -2602,14 +2736,14 @@
         <v>1000</v>
       </c>
       <c r="G3">
-        <f>D3*B3*C3</f>
-        <v>1000000</v>
+        <f>D3^3*B3*C3</f>
+        <v>1000000000000</v>
       </c>
       <c r="H3">
         <v>0.15</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>50</v>
@@ -2629,8 +2763,8 @@
         <v>1000</v>
       </c>
       <c r="G4">
-        <f>D4*B4*C4</f>
-        <v>2000000</v>
+        <f>D4^3*B4*C4</f>
+        <v>2000000000000</v>
       </c>
       <c r="H4">
         <v>0.15</v>
@@ -2647,8 +2781,8 @@
         <v>1000</v>
       </c>
       <c r="G5">
-        <f>D5*B5*C5</f>
-        <v>2000000</v>
+        <f>D5^3*B5*C5</f>
+        <v>2000000000000</v>
       </c>
       <c r="H5">
         <v>0.15</v>
@@ -2656,35 +2790,35 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G6">
-        <f>D6*B6*C6</f>
-        <v>2000000</v>
+        <f>D6^3*B6*C6</f>
+        <v>3000000000000</v>
       </c>
       <c r="H6">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>1000</v>
       </c>
       <c r="G7">
-        <f>D7*B7*C7</f>
-        <v>3000000</v>
+        <f>D7^3*B7*C7</f>
+        <v>3000000000000</v>
       </c>
       <c r="H7">
         <v>0.16</v>
@@ -2692,38 +2826,38 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
       <c r="G8">
-        <f>D8*B8*C8</f>
-        <v>3000000</v>
+        <f>D8^3*B8*C8</f>
+        <v>4000000000000</v>
       </c>
       <c r="H8">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G9">
-        <f>D9*B9*C9</f>
-        <v>3000000</v>
+        <f>D9^3*B9*C9</f>
+        <v>6000000000000</v>
       </c>
       <c r="H9">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -2731,17 +2865,17 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="G10">
-        <f>D10*B10*C10</f>
-        <v>4000000</v>
+        <f>D10^3*B10*C10</f>
+        <v>6000000000000</v>
       </c>
       <c r="H10">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -2749,53 +2883,53 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="G11">
-        <f>D11*B11*C11</f>
-        <v>4000000</v>
+        <f>D11^3*B11*C11</f>
+        <v>8000000000000</v>
       </c>
       <c r="H11">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G12">
-        <f>D12*B12*C12</f>
-        <v>4000000</v>
+        <f>D12^3*B12*C12</f>
+        <v>9000000000000</v>
       </c>
       <c r="H12">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G13">
-        <f>D13*B13*C13</f>
-        <v>6000000</v>
+        <f>D13^3*B13*C13</f>
+        <v>16000000000000</v>
       </c>
       <c r="H13">
-        <v>0.16</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -2803,17 +2937,17 @@
         <v>200</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G14">
-        <f>D14*B14*C14</f>
-        <v>6000000</v>
+        <f>D14^3*B14*C14</f>
+        <v>16000000000000</v>
       </c>
       <c r="H14">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -2827,8 +2961,8 @@
         <v>2000</v>
       </c>
       <c r="G15">
-        <f>D15*B15*C15</f>
-        <v>6000000</v>
+        <f>D15^3*B15*C15</f>
+        <v>24000000000000</v>
       </c>
       <c r="H15">
         <v>0.26</v>
@@ -2845,8 +2979,8 @@
         <v>2000</v>
       </c>
       <c r="G16">
-        <f>D16*B16*C16</f>
-        <v>6000000</v>
+        <f>D16^3*B16*C16</f>
+        <v>24000000000000</v>
       </c>
       <c r="H16">
         <v>0.28000000000000003</v>
@@ -2857,17 +2991,17 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>3000</v>
       </c>
       <c r="G17">
-        <f>D17*B17*C17</f>
-        <v>6000000</v>
+        <f>D17^3*B17*C17</f>
+        <v>27000000000000</v>
       </c>
       <c r="H17">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -2875,22 +3009,22 @@
         <v>200</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G18">
-        <f>D18*B18*C18</f>
-        <v>6000000</v>
+        <f>D18^3*B18*C18</f>
+        <v>32000000000000</v>
       </c>
       <c r="H18">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -2899,8 +3033,8 @@
         <v>2000</v>
       </c>
       <c r="G19">
-        <f>D19*B19*C19</f>
-        <v>8000000</v>
+        <f>D19^3*B19*C19</f>
+        <v>48000000000000</v>
       </c>
       <c r="H19">
         <v>0.27</v>
@@ -2908,20 +3042,20 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G20">
-        <f>D20*B20*C20</f>
-        <v>9000000</v>
+        <f>D20^3*B20*C20</f>
+        <v>48000000000000</v>
       </c>
       <c r="H20">
-        <v>0.16</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -2929,22 +3063,22 @@
         <v>100</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>3000</v>
       </c>
       <c r="G21">
-        <f>D21*B21*C21</f>
-        <v>9000000</v>
+        <f>D21^3*B21*C21</f>
+        <v>54000000000000</v>
       </c>
       <c r="H21">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -2953,11 +3087,11 @@
         <v>3000</v>
       </c>
       <c r="G22">
-        <f>D22*B22*C22</f>
-        <v>9000000</v>
+        <f>D22^3*B22*C22</f>
+        <v>54000000000000</v>
       </c>
       <c r="H22">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -2965,14 +3099,14 @@
         <v>300</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>2000</v>
       </c>
       <c r="G23">
-        <f>D23*B23*C23</f>
-        <v>12000000</v>
+        <f>D23^3*B23*C23</f>
+        <v>72000000000000</v>
       </c>
       <c r="H23">
         <v>0.27</v>
@@ -2980,56 +3114,56 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
       <c r="D24">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G24">
-        <f>D24*B24*C24</f>
-        <v>12000000</v>
+        <f>D24^3*B24*C24</f>
+        <v>81000000000000</v>
       </c>
       <c r="H24">
-        <v>0.28999999999999998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>3000</v>
       </c>
       <c r="G25">
-        <f>D25*B25*C25</f>
-        <v>12000000</v>
+        <f>D25^3*B25*C25</f>
+        <v>81000000000000</v>
       </c>
       <c r="H25">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G26">
-        <f>D26*B26*C26</f>
-        <v>18000000</v>
+        <f>D26^3*B26*C26</f>
+        <v>108000000000000</v>
       </c>
       <c r="H26">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -3043,8 +3177,8 @@
         <v>3000</v>
       </c>
       <c r="G27">
-        <f>D27*B27*C27</f>
-        <v>18000000</v>
+        <f>D27^3*B27*C27</f>
+        <v>162000000000000</v>
       </c>
       <c r="H27">
         <v>0.43</v>
@@ -3061,8 +3195,8 @@
         <v>3000</v>
       </c>
       <c r="G28">
-        <f>D28*B28*C28</f>
-        <v>18000000</v>
+        <f>D28^3*B28*C28</f>
+        <v>162000000000000</v>
       </c>
       <c r="H28">
         <v>0.45</v>
@@ -3079,8 +3213,8 @@
         <v>3000</v>
       </c>
       <c r="G29">
-        <f>D29*B29*C29</f>
-        <v>27000000</v>
+        <f>D29^3*B29*C29</f>
+        <v>243000000000000</v>
       </c>
       <c r="H29">
         <v>0.44</v>
@@ -3097,10 +3231,10 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -3114,8 +3248,8 @@
         <v>1000</v>
       </c>
       <c r="G47">
-        <f>D47 + LOG(B47+D47) + C47*B47*D47</f>
-        <v>1001003.0413926851</v>
+        <f>B47*C47*D47^3</f>
+        <v>1000000000000</v>
       </c>
       <c r="H47">
         <v>0.15</v>
@@ -3132,8 +3266,8 @@
         <v>1000</v>
       </c>
       <c r="G48">
-        <f>D48 + LOG(B48+D48) + C48*B48*D48</f>
-        <v>2001003.0413926851</v>
+        <f>B48*C48*D48^3</f>
+        <v>2000000000000</v>
       </c>
       <c r="H48">
         <v>0.15</v>
@@ -3150,8 +3284,8 @@
         <v>1000</v>
       </c>
       <c r="G49">
-        <f>D49 + LOG(B49+D49) + C49*B49*D49</f>
-        <v>2001003.079181246</v>
+        <f>B49*C49*D49^3</f>
+        <v>2000000000000</v>
       </c>
       <c r="H49">
         <v>0.15</v>
@@ -3162,32 +3296,32 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50">
-        <f>D50 + LOG(B50+D50) + C50*B50*D50</f>
-        <v>2002003.3222192947</v>
+        <f>B50*C50*D50^3</f>
+        <v>3000000000000</v>
       </c>
       <c r="H50">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>1000</v>
       </c>
       <c r="G51">
-        <f>D51 + LOG(B51+D51) + C51*B51*D51</f>
-        <v>3001003.0413926854</v>
+        <f>B51*C51*D51^3</f>
+        <v>3000000000000</v>
       </c>
       <c r="H51">
         <v>0.16</v>
@@ -3195,43 +3329,43 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>1000</v>
       </c>
       <c r="G52">
-        <f>D52 + LOG(B52+D52) + C52*B52*D52</f>
-        <v>3001003.1139433524</v>
+        <f>B52*C52*D52^3</f>
+        <v>4000000000000</v>
       </c>
       <c r="H52">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G53">
-        <f>D53 + LOG(B53+D53) + C53*B53*D53</f>
-        <v>3003003.4913616939</v>
+        <f>B53*C53*D53^3</f>
+        <v>6000000000000</v>
       </c>
       <c r="H53">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -3240,11 +3374,11 @@
         <v>1000</v>
       </c>
       <c r="G54">
-        <f>D54 + LOG(B54+D54) + C54*B54*D54</f>
-        <v>4001003.079181246</v>
+        <f>B54*C54*D54^3</f>
+        <v>6000000000000</v>
       </c>
       <c r="H54">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
@@ -3252,71 +3386,71 @@
         <v>100</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>2000</v>
       </c>
       <c r="G55">
-        <f>D55 + LOG(B55+D55) + C55*B55*D55</f>
-        <v>4002003.322219295</v>
+        <f>B55*C55*D55^3</f>
+        <v>8000000000000</v>
       </c>
       <c r="H55">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G56">
-        <f>D56 + LOG(B56+D56) + C56*B56*D56</f>
-        <v>4002003.3424226809</v>
+        <f>B56*C56*D56^3</f>
+        <v>9000000000000</v>
       </c>
       <c r="H56">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G57">
-        <f>D57 + LOG(B57+D57) + C57*B57*D57</f>
-        <v>6001003.0791812465</v>
+        <f>B57*C57*D57^3</f>
+        <v>16000000000000</v>
       </c>
       <c r="H57">
-        <v>0.17</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <f>D58 + LOG(B58+D58) + C58*B58*D58</f>
-        <v>6001003.1139433524</v>
+        <f>B58*C58*D58^3</f>
+        <v>16000000000000</v>
       </c>
       <c r="H58">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
@@ -3330,8 +3464,8 @@
         <v>2000</v>
       </c>
       <c r="G59">
-        <f>D59 + LOG(B59+D59) + C59*B59*D59</f>
-        <v>6002003.3222192945</v>
+        <f>B59*C59*D59^3</f>
+        <v>24000000000000</v>
       </c>
       <c r="H59">
         <v>0.28000000000000003</v>
@@ -3348,8 +3482,8 @@
         <v>2000</v>
       </c>
       <c r="G60">
-        <f>D60 + LOG(B60+D60) + C60*B60*D60</f>
-        <v>6002003.3617278356</v>
+        <f>B60*C60*D60^3</f>
+        <v>24000000000000</v>
       </c>
       <c r="H60">
         <v>0.26</v>
@@ -3360,17 +3494,17 @@
         <v>100</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>3000</v>
       </c>
       <c r="G61">
-        <f>D61 + LOG(B61+D61) + C61*B61*D61</f>
-        <v>6003003.4913616935</v>
+        <f>B61*C61*D61^3</f>
+        <v>27000000000000</v>
       </c>
       <c r="H61">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
@@ -3378,17 +3512,17 @@
         <v>200</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G62">
-        <f>D62 + LOG(B62+D62) + C62*B62*D62</f>
-        <v>6003003.5051499782</v>
+        <f>B62*C62*D62^3</f>
+        <v>32000000000000</v>
       </c>
       <c r="H62">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
@@ -3396,17 +3530,17 @@
         <v>200</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D63">
         <v>2000</v>
       </c>
       <c r="G63">
-        <f>D63 + LOG(B63+D63) + C63*B63*D63</f>
-        <v>8002003.3424226809</v>
+        <f>B63*C63*D63^3</f>
+        <v>48000000000000</v>
       </c>
       <c r="H63">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
@@ -3414,17 +3548,17 @@
         <v>300</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G64">
-        <f>D64 + LOG(B64+D64) + C64*B64*D64</f>
-        <v>9001003.1139433514</v>
+        <f>B64*C64*D64^3</f>
+        <v>48000000000000</v>
       </c>
       <c r="H64">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -3432,22 +3566,22 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D65">
         <v>3000</v>
       </c>
       <c r="G65">
-        <f>D65 + LOG(B65+D65) + C65*B65*D65</f>
-        <v>9003003.4913616944</v>
+        <f>B65*C65*D65^3</f>
+        <v>54000000000000</v>
       </c>
       <c r="H65">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C66">
         <v>10</v>
@@ -3456,16 +3590,16 @@
         <v>3000</v>
       </c>
       <c r="G66">
-        <f>D66 + LOG(B66+D66) + C66*B66*D66</f>
-        <v>9003003.5185139403</v>
+        <f>B66*C66*D66^3</f>
+        <v>54000000000000</v>
       </c>
       <c r="H66">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C67">
         <v>30</v>
@@ -3474,65 +3608,65 @@
         <v>2000</v>
       </c>
       <c r="G67">
-        <f>D67 + LOG(B67+D67) + C67*B67*D67</f>
-        <v>12002003.342422681</v>
+        <f>B67*C67*D67^3</f>
+        <v>72000000000000</v>
       </c>
       <c r="H67">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G68">
-        <f>D68 + LOG(B68+D68) + C68*B68*D68</f>
-        <v>12002003.361727836</v>
+        <f>B68*C68*D68^3</f>
+        <v>81000000000000</v>
       </c>
       <c r="H68">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>3000</v>
       </c>
       <c r="G69">
-        <f>D69 + LOG(B69+D69) + C69*B69*D69</f>
-        <v>12003003.505149979</v>
+        <f>B69*C69*D69^3</f>
+        <v>81000000000000</v>
       </c>
       <c r="H69">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C70">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G70">
-        <f>D70 + LOG(B70+D70) + C70*B70*D70</f>
-        <v>18002003.361727837</v>
+        <f>B70*C70*D70^3</f>
+        <v>108000000000000</v>
       </c>
       <c r="H70">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
@@ -3546,8 +3680,8 @@
         <v>3000</v>
       </c>
       <c r="G71">
-        <f>D71 + LOG(B71+D71) + C71*B71*D71</f>
-        <v>18003003.505149979</v>
+        <f>B71*C71*D71^3</f>
+        <v>162000000000000</v>
       </c>
       <c r="H71">
         <v>0.43</v>
@@ -3564,8 +3698,8 @@
         <v>3000</v>
       </c>
       <c r="G72">
-        <f>D72 + LOG(B72+D72) + C72*B72*D72</f>
-        <v>18003003.51851394</v>
+        <f>B72*C72*D72^3</f>
+        <v>162000000000000</v>
       </c>
       <c r="H72">
         <v>0.45</v>
@@ -3582,16 +3716,16 @@
         <v>3000</v>
       </c>
       <c r="G73">
-        <f>D73 + LOG(B73+D73) + C73*B73*D73</f>
-        <v>27003003.51851394</v>
+        <f>B73*C73*D73^3</f>
+        <v>243000000000000</v>
       </c>
       <c r="H73">
         <v>0.44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:I73">
-    <sortCondition ref="G47:G73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I29">
+    <sortCondition ref="G3:G29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
